--- a/target/classes/testdata.xlsx
+++ b/target/classes/testdata.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\IdeaProjects\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C24B989-7A5D-40E4-BCB2-C2835DC8FCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75EEC73-22DC-44F8-8B6C-0455EE9DB8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="loginPageuser" sheetId="1" r:id="rId1"/>
+    <sheet name="loginPage" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>user</t>
   </si>
@@ -35,18 +35,27 @@
   <si>
     <t>admin</t>
   </si>
+  <si>
+    <t>Demo POS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -69,8 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,23 +361,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="43.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -377,5 +393,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/target/classes/testdata.xlsx
+++ b/target/classes/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\IdeaProjects\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75EEC73-22DC-44F8-8B6C-0455EE9DB8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD34CE3-D2F5-4E7C-881A-19416B0EEF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>user</t>
   </si>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,6 +391,11 @@
         <v>12345</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/target/classes/testdata.xlsx
+++ b/target/classes/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\IdeaProjects\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD34CE3-D2F5-4E7C-881A-19416B0EEF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9FAE14-A53E-40EB-A676-58379D7DE67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>user</t>
   </si>
@@ -36,7 +36,10 @@
     <t>admin</t>
   </si>
   <si>
-    <t>Demo POS</t>
+    <t>Login - Demo POS</t>
+  </si>
+  <si>
+    <t>These credentials do not match our records.</t>
   </si>
 </sst>
 </file>
@@ -361,7 +364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -369,31 +372,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="43.85546875" customWidth="1"/>
+    <col min="1" max="1" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>12345</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/testdata.xlsx
+++ b/target/classes/testdata.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\IdeaProjects\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9FAE14-A53E-40EB-A676-58379D7DE67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5067BD2A-0BD3-4C36-A782-1FC37D7C9BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="resetPage" sheetId="2" r:id="rId2"/>
+    <sheet name="homePage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>user</t>
   </si>
@@ -40,13 +42,34 @@
   </si>
   <si>
     <t>These credentials do not match our records.</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>bhava123@gmail.com</t>
+  </si>
+  <si>
+    <t>error msg</t>
+  </si>
+  <si>
+    <t>We can't find a user with that e-mail address.</t>
+  </si>
+  <si>
+    <t>user name</t>
+  </si>
+  <si>
+    <t>home page title</t>
+  </si>
+  <si>
+    <t>Sign Out</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +82,14 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,14 +109,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -366,7 +400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -405,4 +439,90 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4A0D47-750B-4625-944D-1776451EB1F6}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.28515625" customWidth="1"/>
+    <col min="2" max="2" width="91.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{7612B7AB-D993-4A62-8C84-C8A890D2CAA6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88946FC-0DC2-4710-871E-95066BBB5480}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>